--- a/static/员工信息表模板.xlsx
+++ b/static/员工信息表模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7817FFF-EF7D-4754-A17A-5123C2117CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AE55B-17F1-49BE-BD1B-FB3726D4993C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123456789012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河南省新乡市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,15 +94,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已婚/未婚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群众/党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翻斗花园5-5-401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129456586012345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,24 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,31 +480,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -501,29 +523,35 @@
       <c r="D2">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>12345678901</v>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2">
+        <v>13909629876</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
